--- a/Assets/Resources/MyAssets/level/edit.xlsx
+++ b/Assets/Resources/MyAssets/level/edit.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,8 +213,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表11" displayName="表11" ref="A1:J4" tableType="xml" totalsRowShown="0" headerRowDxfId="7" connectionId="4">
-  <autoFilter ref="A1:J4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表11" displayName="表11" ref="A1:J7" tableType="xml" totalsRowShown="0" headerRowDxfId="7" connectionId="4">
+  <autoFilter ref="A1:J7">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -542,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -600,13 +604,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
       </c>
       <c r="F2" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G2" s="3">
         <v>-1</v>
@@ -632,13 +636,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="4">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E3" s="4">
         <v>20</v>
       </c>
       <c r="F3" s="4">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G3" s="4">
         <v>-1</v>
@@ -664,13 +668,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="4">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="E4" s="4">
         <v>40</v>
       </c>
       <c r="F4" s="4">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G4" s="4">
         <v>-1</v>
@@ -683,12 +687,108 @@
       </c>
       <c r="J4" s="4">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>300</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>300</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4">
+        <v>300</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>300</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
